--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -468,16 +468,16 @@
         <v>Apr</v>
       </c>
       <c r="B2" t="str">
-        <v>Project</v>
+        <v>nlklkjl</v>
       </c>
       <c r="C2" t="str">
-        <v>Delta</v>
+        <v>Decommissioned</v>
       </c>
       <c r="D2" t="str">
-        <v>Live</v>
+        <v>JPDC1</v>
       </c>
       <c r="E2" t="str">
-        <v>JPDC1</v>
+        <v>B</v>
       </c>
       <c r="F2" t="str">
         <v>A</v>
@@ -488,10 +488,10 @@
       <c r="H2" t="str">
         <v>192.168.4.0/24</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="str">
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="str">
         <v>345</v>
       </c>
       <c r="K2" t="str">
@@ -500,7 +500,7 @@
       <c r="L2" t="str">
         <v>ISP4</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="str">
         <v>400</v>
       </c>
       <c r="N2" t="str">
@@ -509,7 +509,7 @@
       <c r="O2" t="str">
         <v>ABC</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="str">
         <v>45387</v>
       </c>
       <c r="Q2" t="str">
@@ -530,13 +530,13 @@
         <v>Project</v>
       </c>
       <c r="C3" t="str">
-        <v>Epsil</v>
+        <v>Decommissioned</v>
       </c>
       <c r="D3" t="str">
-        <v>onLive</v>
+        <v>JPDC1</v>
       </c>
       <c r="E3" t="str">
-        <v>JPDC2</v>
+        <v>B</v>
       </c>
       <c r="F3" t="str">
         <v>B</v>
@@ -547,10 +547,10 @@
       <c r="H3" t="str">
         <v>192.168.5.0/24</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="str">
         <v>345</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="str">
         <v>678</v>
       </c>
       <c r="K3" t="str">
@@ -559,7 +559,7 @@
       <c r="L3" t="str">
         <v>ISP5</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="str">
         <v>500</v>
       </c>
       <c r="N3" t="str">
@@ -568,7 +568,7 @@
       <c r="O3" t="str">
         <v>XYZ</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="str">
         <v>45430</v>
       </c>
       <c r="Q3" t="str">

--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -468,7 +468,7 @@
         <v>Apr</v>
       </c>
       <c r="B2" t="str">
-        <v>nlklkjl</v>
+        <v>project4</v>
       </c>
       <c r="C2" t="str">
         <v>Decommissioned</v>
@@ -510,13 +510,13 @@
         <v>ABC</v>
       </c>
       <c r="P2" t="str">
-        <v>45387</v>
+        <v>1/1/2024</v>
       </c>
       <c r="Q2" t="str">
         <v>Sarah</v>
       </c>
       <c r="R2" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S2" t="str">
         <v>Ut enim ad minim veniam</v>
@@ -967,16 +967,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Jul</v>
+        <v>Apr</v>
       </c>
       <c r="B2" t="str">
-        <v>Project</v>
+        <v>Project2</v>
       </c>
       <c r="C2" t="str">
-        <v>Theta</v>
+        <v>Live</v>
       </c>
       <c r="D2" t="str">
-        <v>Live</v>
+        <v>CODC1</v>
       </c>
       <c r="E2" t="str">
         <v>CODC1</v>
@@ -990,10 +990,10 @@
       <c r="H2" t="str">
         <v>192.168.7.0/24</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="str">
         <v>901</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="str">
         <v>234</v>
       </c>
       <c r="K2" t="str">
@@ -1002,7 +1002,7 @@
       <c r="L2" t="str">
         <v>ISP7</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="str">
         <v>700</v>
       </c>
       <c r="N2" t="str">
@@ -1011,14 +1011,14 @@
       <c r="O2" t="str">
         <v>XYZ</v>
       </c>
-      <c r="P2">
-        <v>45487</v>
+      <c r="P2" t="str">
+        <v>function toString() { [native code] }</v>
       </c>
       <c r="Q2" t="str">
         <v>Adam</v>
       </c>
       <c r="R2" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S2" t="str">
         <v>Excepteur sint occaecat cupidatat non proident</v>

--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -583,61 +583,61 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Jun</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>Project</v>
+        <v/>
       </c>
       <c r="C4" t="str">
-        <v>Zeta</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Decommissioned</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>JPDC3</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>A</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>R&amp;D</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>192.168.6.0/24</v>
-      </c>
-      <c r="I4">
-        <v>678</v>
-      </c>
-      <c r="J4">
-        <v>901</v>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v>Partition6</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>ISP6</v>
-      </c>
-      <c r="M4">
-        <v>600</v>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
       </c>
       <c r="N4" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="O4" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P4">
-        <v>45465</v>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
       </c>
       <c r="Q4" t="str">
-        <v>Emily</v>
+        <v/>
       </c>
       <c r="R4" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="S4" t="str">
-        <v>Duis aute irure dolor in reprehenderit</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -583,61 +583,61 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Feb</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>Project5</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Live</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>NBMNBMB</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>C</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>HR</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>192.168.5.10</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>kjshekjfh</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>kjsdka</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>Partition6</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>TATA</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>jlljk</v>
       </c>
       <c r="O4" t="str">
-        <v/>
+        <v>jlkjljl</v>
       </c>
       <c r="P4" t="str">
-        <v/>
+        <v>5/1/2024</v>
       </c>
       <c r="Q4" t="str">
-        <v/>
+        <v>Deep</v>
       </c>
       <c r="R4" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="S4" t="str">
-        <v/>
+        <v>Testing</v>
       </c>
     </row>
   </sheetData>

--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
   <sheets>
     <sheet name="JPDC" sheetId="1" r:id="rId1"/>
     <sheet name="BDC" sheetId="2" r:id="rId2"/>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -586,7 +586,7 @@
         <v>Feb</v>
       </c>
       <c r="B4" t="str">
-        <v>Project5</v>
+        <v>Project Alpha testing</v>
       </c>
       <c r="C4" t="str">
         <v>Live</v>
@@ -638,19 +638,78 @@
       </c>
       <c r="S4" t="str">
         <v>Testing</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Live</v>
+      </c>
+      <c r="D5" t="str">
+        <v>ALPHA TEST ADDING</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Alpha Test AddingAlpha Test Adding</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Alpha Test AAlpha Test Addingdding</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="M5" t="str">
+        <v>4</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="P5" t="str">
+        <v>3/4/2024</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="R5" t="str">
+        <v>No</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Alpha Test Adding</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -891,17 +950,76 @@
         <v>Sed do eiusmod tempor incididunt ut labore et dolore magna aliqua</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Alpha Test Adding</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Live</v>
+      </c>
+      <c r="D5" t="str">
+        <v>BDC7</v>
+      </c>
+      <c r="E5" t="str">
+        <v>C</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ABCD</v>
+      </c>
+      <c r="G5" t="str">
+        <v>10.0.0.2/24</v>
+      </c>
+      <c r="H5" t="str">
+        <v>144.3.3.7</v>
+      </c>
+      <c r="I5" t="str">
+        <v>testpidb</v>
+      </c>
+      <c r="J5" t="str">
+        <v>testgdcn</v>
+      </c>
+      <c r="K5" t="str">
+        <v>testpartition</v>
+      </c>
+      <c r="L5" t="str">
+        <v>TATA</v>
+      </c>
+      <c r="M5" t="str">
+        <v>7</v>
+      </c>
+      <c r="N5" t="str">
+        <v>wbse321</v>
+      </c>
+      <c r="O5" t="str">
+        <v>rfc2321</v>
+      </c>
+      <c r="P5" t="str">
+        <v>3/4/2024</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>ajay</v>
+      </c>
+      <c r="R5" t="str">
+        <v>No</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Testing Addition</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1142,10 +1260,69 @@
         <v>Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CODC Project testing Update</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Decommissioned</v>
+      </c>
+      <c r="D5" t="str">
+        <v>CODC2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>A</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ABCD</v>
+      </c>
+      <c r="G5" t="str">
+        <v>10.0.0.1/24</v>
+      </c>
+      <c r="H5" t="str">
+        <v>144.3.3.3</v>
+      </c>
+      <c r="I5" t="str">
+        <v>testpidb</v>
+      </c>
+      <c r="J5" t="str">
+        <v>testgdcn</v>
+      </c>
+      <c r="K5" t="str">
+        <v>testpartition</v>
+      </c>
+      <c r="L5" t="str">
+        <v>TATA</v>
+      </c>
+      <c r="M5" t="str">
+        <v>5</v>
+      </c>
+      <c r="N5" t="str">
+        <v>wbse3215</v>
+      </c>
+      <c r="O5" t="str">
+        <v>rfc2321</v>
+      </c>
+      <c r="P5" t="str">
+        <v>3/6/2024</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>ajay</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Testing Updation</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -530,7 +530,7 @@
         <v>Project</v>
       </c>
       <c r="C3" t="str">
-        <v>Decommissioned</v>
+        <v>Live</v>
       </c>
       <c r="D3" t="str">
         <v>JPDC1</v>
@@ -578,7 +578,7 @@
         <v>No</v>
       </c>
       <c r="S3" t="str">
-        <v>Quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea</v>
+        <v>downgrade</v>
       </c>
     </row>
     <row r="4">
@@ -696,7 +696,7 @@
         <v>No</v>
       </c>
       <c r="S5" t="str">
-        <v>Alpha Test Adding</v>
+        <v>upgrade</v>
       </c>
     </row>
   </sheetData>

--- a/python_script/bw_billing_tracker.xlsx
+++ b/python_script/bw_billing_tracker.xlsx
@@ -578,7 +578,7 @@
         <v>No</v>
       </c>
       <c r="S3" t="str">
-        <v>downgrade</v>
+        <v>project downgrade to 7mb</v>
       </c>
     </row>
     <row r="4">
@@ -696,7 +696,7 @@
         <v>No</v>
       </c>
       <c r="S5" t="str">
-        <v>upgrade</v>
+        <v>project upgrade</v>
       </c>
     </row>
   </sheetData>
@@ -1209,10 +1209,10 @@
         <v>Project</v>
       </c>
       <c r="C4" t="str">
-        <v>Kappa</v>
+        <v>Live</v>
       </c>
       <c r="D4" t="str">
-        <v>Live</v>
+        <v>LIVE</v>
       </c>
       <c r="E4" t="str">
         <v>CODC3</v>
@@ -1226,10 +1226,10 @@
       <c r="H4" t="str">
         <v>192.168.9.0/24</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="str">
         <v>567</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="str">
         <v>890</v>
       </c>
       <c r="K4" t="str">
@@ -1238,7 +1238,7 @@
       <c r="L4" t="str">
         <v>ISP9</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="str">
         <v>900</v>
       </c>
       <c r="N4" t="str">
@@ -1247,17 +1247,17 @@
       <c r="O4" t="str">
         <v>XYZ</v>
       </c>
-      <c r="P4">
-        <v>45542</v>
+      <c r="P4" t="str">
+        <v>1/1/1970</v>
       </c>
       <c r="Q4" t="str">
         <v>Mark</v>
       </c>
       <c r="R4" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S4" t="str">
-        <v>Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit</v>
+        <v>upgraded project</v>
       </c>
     </row>
     <row r="5">
